--- a/会员体系/会员分析/会员分析报告/会员分析报告201907/分析报告/会员分析v1.14/会员分析数据_20191231.xlsx
+++ b/会员体系/会员分析/会员分析报告/会员分析报告201907/分析报告/会员分析v1.14/会员分析数据_20191231.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\益丰EB\会员体系\会员分析\会员分析报告\会员分析报告201907\分析报告\会员分析v1.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DD202-AA26-4013-9458-9B0F3A6449C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B998A173-E721-4C65-A678-0B7F71CC4AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="780" windowWidth="14400" windowHeight="8990" tabRatio="954" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50" yWindow="70" windowWidth="18720" windowHeight="9820" tabRatio="954" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员现状" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="324">
   <si>
     <t>?</t>
   </si>
@@ -20127,7 +20127,7 @@
   </sheetPr>
   <dimension ref="A3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -20306,14 +20306,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A3:F23"/>
+  <dimension ref="A3:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" customWidth="1"/>
     <col min="5" max="5" width="18.26953125" customWidth="1"/>
@@ -20347,17 +20348,17 @@
       <c r="B4" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="1">
-        <v>1421</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>157.602151673398</v>
+        <v>158</v>
       </c>
       <c r="E4">
-        <v>911.66666599999996</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2742.333333</v>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -20367,137 +20368,137 @@
       <c r="B5" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="3">
-        <v>1631.6666660000001</v>
+      <c r="C5">
+        <v>2240</v>
       </c>
       <c r="D5">
-        <v>126.42765514524901</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>711.66666599999996</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4322.8571419999998</v>
+        <v>193</v>
+      </c>
+      <c r="F5">
+        <v>2119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>264</v>
       </c>
       <c r="C6">
-        <v>953</v>
+        <v>4695</v>
       </c>
       <c r="D6">
-        <v>108.066934312082</v>
+        <v>138</v>
       </c>
       <c r="E6">
-        <v>457.09755999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2596.2857140000001</v>
+        <v>379</v>
+      </c>
+      <c r="F6">
+        <v>4316</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
         <v>264</v>
       </c>
       <c r="C7">
-        <v>485.71428500000002</v>
+        <v>840</v>
       </c>
       <c r="D7">
-        <v>92.753079474752198</v>
+        <v>101</v>
       </c>
       <c r="E7">
-        <v>274.42857099999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1119</v>
+        <v>182</v>
+      </c>
+      <c r="F7">
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="3">
-        <v>3451.2857140000001</v>
+      <c r="C8">
+        <v>1136</v>
       </c>
       <c r="D8">
-        <v>168.72059888580799</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1253</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10637.714285</v>
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>182</v>
+      </c>
+      <c r="F8">
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
         <v>264</v>
       </c>
       <c r="C9">
-        <v>674.28571399999998</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <v>100.298409012367</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>361.57142800000003</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1687</v>
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="1">
-        <v>1145</v>
+      <c r="C10">
+        <v>521</v>
       </c>
       <c r="D10">
-        <v>122.09349253880799</v>
+        <v>91</v>
       </c>
       <c r="E10">
-        <v>532.4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3275.2857140000001</v>
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="3">
-        <v>2577.2857140000001</v>
+      <c r="C11">
+        <v>670</v>
       </c>
       <c r="D11">
-        <v>137.613035574207</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>854.8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5208.2857139999996</v>
+        <v>144</v>
+      </c>
+      <c r="F11">
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -20505,244 +20506,205 @@
         <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C12">
-        <v>6.75</v>
+        <v>4840</v>
       </c>
       <c r="D12">
-        <v>226.21666666666599</v>
+        <v>171</v>
       </c>
       <c r="E12">
-        <v>9.75</v>
+        <v>324</v>
       </c>
       <c r="F12">
-        <v>496</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13">
-        <v>217.85714200000001</v>
+        <v>5086</v>
       </c>
       <c r="D13">
-        <v>83.152250519286994</v>
+        <v>174</v>
       </c>
       <c r="E13">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="F13">
-        <v>535</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="3">
-        <v>1956.903225</v>
+      <c r="C14">
+        <v>6333</v>
       </c>
       <c r="D14">
-        <v>131.252091159255</v>
+        <v>173</v>
       </c>
       <c r="E14">
-        <v>412.64583299999998</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5791.7272720000001</v>
+        <v>359</v>
+      </c>
+      <c r="F14">
+        <v>5930</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="3">
-        <v>3978.875</v>
+      <c r="C15">
+        <v>3276</v>
       </c>
       <c r="D15">
-        <v>135.68779601885501</v>
+        <v>134</v>
       </c>
       <c r="E15">
-        <v>800.79166599999996</v>
-      </c>
-      <c r="F15" s="3">
-        <v>13588.520833</v>
+        <v>229</v>
+      </c>
+      <c r="F15">
+        <v>3036</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
         <v>265</v>
       </c>
       <c r="C16">
-        <v>958.18918900000006</v>
+        <v>4557</v>
       </c>
       <c r="D16">
-        <v>113.29145144388001</v>
+        <v>136</v>
       </c>
       <c r="E16">
-        <v>241.60416599999999</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2679.2105259999998</v>
+        <v>319</v>
+      </c>
+      <c r="F16">
+        <v>4245</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="3">
-        <v>3762.75</v>
+      <c r="C17">
+        <v>1529</v>
       </c>
       <c r="D17">
-        <v>171.19978830955199</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1012.5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9715.4166659999992</v>
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>136</v>
+      </c>
+      <c r="F17">
+        <v>1385</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
         <v>265</v>
       </c>
-      <c r="C18" s="3">
-        <v>5934.5277770000002</v>
+      <c r="C18">
+        <v>2123</v>
       </c>
       <c r="D18">
-        <v>174.906724724642</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1043.9000000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>18183.636363000001</v>
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>1930</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="3">
-        <v>4899.5416660000001</v>
+      <c r="C19">
+        <v>177</v>
       </c>
       <c r="D19">
-        <v>170.78223902386</v>
+        <v>76</v>
       </c>
       <c r="E19">
-        <v>917.83333300000004</v>
-      </c>
-      <c r="F19" s="3">
-        <v>17740.416666000001</v>
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="3">
-        <v>3093.4791660000001</v>
+      <c r="C20">
+        <v>638</v>
       </c>
       <c r="D20">
-        <v>140.36349926487699</v>
+        <v>94</v>
       </c>
       <c r="E20">
-        <v>615.25</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9513.6041659999992</v>
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="3">
-        <v>1456.052631</v>
+      <c r="C21">
+        <v>1014</v>
       </c>
       <c r="D21">
-        <v>122.997901745683</v>
+        <v>111</v>
       </c>
       <c r="E21">
-        <v>328.06451600000003</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4184.4545449999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22">
-        <v>584</v>
-      </c>
-      <c r="D22">
-        <v>98.718577446379697</v>
-      </c>
-      <c r="E22">
-        <v>162.03846100000001</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1562.7272720000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23">
-        <v>260</v>
-      </c>
-      <c r="D23">
-        <v>81.936948104719406</v>
-      </c>
-      <c r="E23">
-        <v>96.75</v>
-      </c>
-      <c r="F23">
-        <v>736</v>
+        <v>101</v>
+      </c>
+      <c r="F21">
+        <v>904</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38324,7 +38286,7 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
